--- a/_Mio corso Python base/Lavorare con Excel/file_esempio.xlsx
+++ b/_Mio corso Python base/Lavorare con Excel/file_esempio.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,6 +428,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
